--- a/library/Library_BrownH_12.19.19_temp.xlsx
+++ b/library/Library_BrownH_12.19.19_temp.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">AAGCACGT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">5a 2</t>
@@ -237,7 +237,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -271,6 +271,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -316,7 +323,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,6 +342,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -361,7 +372,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L27"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -452,10 +463,11 @@
       <c r="J2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="5" t="b">
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -504,10 +516,11 @@
       <c r="J3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="5" t="b">
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -542,10 +555,11 @@
       <c r="J4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5" t="b">
+      <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -580,10 +594,11 @@
       <c r="J5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="5" t="b">
+      <c r="K5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -618,10 +633,11 @@
       <c r="J6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="5" t="b">
+      <c r="K6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -656,10 +672,11 @@
       <c r="J7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5" t="b">
+      <c r="K7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -694,10 +711,11 @@
       <c r="J8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="5" t="b">
+      <c r="K8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -732,10 +750,11 @@
       <c r="J9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="5" t="b">
+      <c r="K9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -770,10 +789,11 @@
       <c r="J10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="5" t="b">
+      <c r="K10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -808,10 +828,11 @@
       <c r="J11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="5" t="b">
+      <c r="K11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -846,10 +867,11 @@
       <c r="J12" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="5" t="b">
+      <c r="K12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -884,10 +906,11 @@
       <c r="J13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="5" t="b">
+      <c r="K13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -922,10 +945,11 @@
       <c r="J14" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="5" t="b">
+      <c r="K14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -960,10 +984,11 @@
       <c r="J15" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="5" t="b">
+      <c r="K15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -998,10 +1023,11 @@
       <c r="J16" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="5" t="b">
+      <c r="K16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1036,10 +1062,11 @@
       <c r="J17" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="5" t="b">
+      <c r="K17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1074,10 +1101,11 @@
       <c r="J18" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="5" t="b">
+      <c r="K18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1112,10 +1140,11 @@
       <c r="J19" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="5" t="b">
+      <c r="K19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1150,10 +1179,11 @@
       <c r="J20" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="5" t="b">
+      <c r="K20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1188,10 +1218,11 @@
       <c r="J21" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="5" t="b">
+      <c r="K21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1226,10 +1257,11 @@
       <c r="J22" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="5" t="b">
+      <c r="K22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1264,10 +1296,11 @@
       <c r="J23" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="5" t="b">
+      <c r="K23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1302,10 +1335,11 @@
       <c r="J24" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="5" t="b">
+      <c r="K24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1340,10 +1374,11 @@
       <c r="J25" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="5" t="b">
+      <c r="K25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1378,10 +1413,11 @@
       <c r="J26" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="5" t="b">
+      <c r="K26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1416,10 +1452,11 @@
       <c r="J27" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="5" t="b">
+      <c r="K27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/library/Library_BrownH_12.19.19_temp.xlsx
+++ b/library/Library_BrownH_12.19.19_temp.xlsx
@@ -1,28 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9575FC-2E31-E546-A148-CA98006DDFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23760" windowHeight="14080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,149 +22,165 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="43">
   <si>
-    <t>s2cDNADate</t>
-  </si>
-  <si>
-    <t>s2cDNAPreparer</t>
-  </si>
-  <si>
-    <t>s2cDNASampleNumber</t>
-  </si>
-  <si>
-    <t>libraryDate</t>
-  </si>
-  <si>
-    <t>libraryPreparer</t>
-  </si>
-  <si>
-    <t>librarySampleNumber</t>
-  </si>
-  <si>
-    <t>index1Name</t>
-  </si>
-  <si>
-    <t>index1Sequence</t>
-  </si>
-  <si>
-    <t>index2Name</t>
-  </si>
-  <si>
-    <t>index2Sequence</t>
-  </si>
-  <si>
-    <t>libraryProtocol</t>
-  </si>
-  <si>
-    <t>roboticLibraryPrep</t>
-  </si>
-  <si>
-    <t>12.19.19</t>
-  </si>
-  <si>
-    <t>H.BROWN</t>
-  </si>
-  <si>
-    <t>TGAGGTT</t>
-  </si>
-  <si>
-    <t>SIC_Index2_08</t>
-  </si>
-  <si>
-    <t>AAGCACGT</t>
-  </si>
-  <si>
-    <t>E7420</t>
-  </si>
-  <si>
-    <t>GCTTAGA</t>
-  </si>
-  <si>
-    <t>ATGACAG</t>
-  </si>
-  <si>
-    <t>CACCTCC</t>
-  </si>
-  <si>
-    <t>ATCGAGC</t>
-  </si>
-  <si>
-    <t>TACTCTA</t>
-  </si>
-  <si>
-    <t>AGACTGA</t>
-  </si>
-  <si>
-    <t>CTTGGAA</t>
-  </si>
-  <si>
-    <t>CCGATTA</t>
-  </si>
-  <si>
-    <t>GGCAGCG</t>
-  </si>
-  <si>
-    <t>CCATCAT</t>
-  </si>
-  <si>
-    <t>TAACAAG</t>
-  </si>
-  <si>
-    <t>GAGGCGT</t>
-  </si>
-  <si>
-    <t>TTTAACT</t>
-  </si>
-  <si>
-    <t>GGTCCTC</t>
-  </si>
-  <si>
-    <t>CGGTGGC</t>
-  </si>
-  <si>
-    <t>ACTGTCG</t>
-  </si>
-  <si>
-    <t>GTATTTG</t>
-  </si>
-  <si>
-    <t>GAGTACG</t>
-  </si>
-  <si>
-    <t>ACAGATA</t>
-  </si>
-  <si>
-    <t>CTCAATG</t>
-  </si>
-  <si>
-    <t>AAATGCA</t>
-  </si>
-  <si>
-    <t>ACGCGGG</t>
-  </si>
-  <si>
-    <t>GGAGTCC</t>
-  </si>
-  <si>
-    <t>CGTCGCT</t>
-  </si>
-  <si>
-    <t>TCAACTG</t>
+    <t xml:space="preserve">s2cDNADate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s2cDNAPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s2cDNASampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libraryDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libraryPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">librarySampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index1Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index1Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index2Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index2Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libraryProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roboticLibraryPrep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.19.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H.BROWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGAGGTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIC_Index2_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAGCACGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCTTAGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATGACAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACCTCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATCGAGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACTCTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGACTGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTGGAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCGATTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGCAGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCATCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAACAAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGGCGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTCCTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGGTGGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTGTCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTATTTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGTACG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACAGATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTCAATG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAATGCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACGCGGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGAGTCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTCGCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCAACTG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -195,6 +200,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,7 +212,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -214,345 +220,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,14 +354,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -620,10 +370,10 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -632,14 +382,14 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="L2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -657,14 +407,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -673,10 +423,10 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -685,25 +435,25 @@
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L3" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -712,10 +462,10 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -724,25 +474,25 @@
       <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L4" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -751,10 +501,10 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -763,25 +513,25 @@
       <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L5" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -790,10 +540,10 @@
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -802,25 +552,25 @@
       <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L6" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -829,10 +579,10 @@
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -841,25 +591,25 @@
       <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L7" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -868,10 +618,10 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -880,25 +630,25 @@
       <c r="I8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L8" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -907,10 +657,10 @@
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -919,25 +669,25 @@
       <c r="I9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L9" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -946,10 +696,10 @@
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -958,25 +708,25 @@
       <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L10" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -985,10 +735,10 @@
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -997,25 +747,25 @@
       <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L11" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1024,10 +774,10 @@
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -1036,25 +786,25 @@
       <c r="I12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L12" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1063,10 +813,10 @@
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -1075,25 +825,25 @@
       <c r="I13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L13" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1102,10 +852,10 @@
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -1114,25 +864,25 @@
       <c r="I14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L14" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1141,10 +891,10 @@
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -1153,25 +903,25 @@
       <c r="I15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L15" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1180,10 +930,10 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1192,25 +942,25 @@
       <c r="I16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L16" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1219,10 +969,10 @@
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -1231,25 +981,25 @@
       <c r="I17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L17" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1258,10 +1008,10 @@
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -1270,25 +1020,25 @@
       <c r="I18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L18" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1297,10 +1047,10 @@
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -1309,25 +1059,25 @@
       <c r="I19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L19" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1336,10 +1086,10 @@
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -1348,25 +1098,25 @@
       <c r="I20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L20" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1375,10 +1125,10 @@
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -1387,25 +1137,25 @@
       <c r="I21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L21" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1414,10 +1164,10 @@
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -1426,25 +1176,25 @@
       <c r="I22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L22" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1453,10 +1203,10 @@
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -1465,25 +1215,25 @@
       <c r="I23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L23" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1492,10 +1242,10 @@
       <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -1504,25 +1254,25 @@
       <c r="I24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L24" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1531,10 +1281,10 @@
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -1543,25 +1293,25 @@
       <c r="I25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L25" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1570,10 +1320,10 @@
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -1582,25 +1332,25 @@
       <c r="I26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L26" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1609,10 +1359,10 @@
       <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -1621,19 +1371,24 @@
       <c r="I27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="L27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>